--- a/Stocks/SHRIRAMCIT.xlsx
+++ b/Stocks/SHRIRAMCIT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>2206.0166666666669</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2324.8590494476975</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2277.5352023527662</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>65.127591934282009</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>25</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>79.900000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.31289111389236512</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2322.0517122228475</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-15.67237306545303</v>
       </c>
       <c r="Y67">
         <v>-18.196480805128211</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2225</v>
+      </c>
+      <c r="D83">
+        <v>2225</v>
+      </c>
+      <c r="E83">
+        <v>2138.8000000000002</v>
+      </c>
+      <c r="F83">
+        <v>2150</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2171.2666666666669</v>
+      </c>
+      <c r="H83">
+        <v>2186.0263507952286</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>2215.6973402924082</v>
+      </c>
+      <c r="K83">
+        <v>2154.0366679464832</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>36.412623297757719</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>11.199999999999818</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>86.199999999999818</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.12993039443155269</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V83">
+        <v>2184.4961660007043</v>
+      </c>
+      <c r="W83">
+        <v>2214.1476228884649</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-29.65145688776056</v>
+      </c>
+      <c r="Y83">
+        <v>-37.859105135772019</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2160</v>
+      </c>
+      <c r="D84">
+        <v>2171</v>
+      </c>
+      <c r="E84">
+        <v>2110</v>
+      </c>
+      <c r="F84">
+        <v>2115.9499999999998</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2132.3166666666666</v>
+      </c>
+      <c r="H84">
+        <v>2159.1715087309476</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>2205.7645980052062</v>
+      </c>
+      <c r="K84">
+        <v>2144.2507417361535</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>28.221428959911108</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>5.9499999999998181</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>61</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>9.7540983606554402E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>2173.9506020005961</v>
+      </c>
+      <c r="W84">
+        <v>2206.8737248967268</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-32.923122896130735</v>
+      </c>
+      <c r="Y84">
+        <v>-36.871908687843764</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2102.0500000000002</v>
+      </c>
+      <c r="D85">
+        <v>2166.9499999999998</v>
+      </c>
+      <c r="E85">
+        <v>2102.0500000000002</v>
+      </c>
+      <c r="F85">
+        <v>2105</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2124.6666666666665</v>
+      </c>
+      <c r="H85">
+        <v>2141.9190876988068</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>2197.139131781827</v>
+      </c>
+      <c r="K85">
+        <v>2134.8727991281194</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>25.881059962354101</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.9499999999998181</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>64.899999999999636</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>4.5454545454542909E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V85">
+        <v>2163.3428170774273</v>
+      </c>
+      <c r="W85">
+        <v>2199.3275230525246</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-35.984705975097313</v>
+      </c>
+      <c r="Y85">
+        <v>-36.694468145294472</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2117.65</v>
+      </c>
+      <c r="D86">
+        <v>2119.5</v>
+      </c>
+      <c r="E86">
+        <v>2053</v>
+      </c>
+      <c r="F86">
+        <v>2054.5</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2075.6666666666665</v>
+      </c>
+      <c r="H86">
+        <v>2108.7928771827364</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>2179.8859913858655</v>
+      </c>
+      <c r="K86">
+        <v>2116.6788437663149</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>17.510022147043234</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>66.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>2.2556390977443608E-2</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V86">
+        <v>2146.5977682962848</v>
+      </c>
+      <c r="W86">
+        <v>2188.5995583819672</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-42.001790085682387</v>
+      </c>
+      <c r="Y86">
+        <v>-37.755932533372054</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="35"/>
+        <v>2111.9</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="36"/>
+        <v>2094.1</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="37"/>
+        <v>2086.25</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="38"/>
+        <v>2078.4</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2082</v>
+      </c>
+      <c r="D87">
+        <v>2083</v>
+      </c>
+      <c r="E87">
+        <v>2012</v>
+      </c>
+      <c r="F87">
+        <v>2040.1</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2045.0333333333335</v>
+      </c>
+      <c r="H87">
+        <v>2076.9131052580351</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>2158.3557710778955</v>
+      </c>
+      <c r="K87">
+        <v>2093.4168784849116</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N87">
+        <v>15.700021915279777</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>28.099999999999909</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>71</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.39577464788732264</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>2130.2134962507025</v>
+      </c>
+      <c r="W87">
+        <v>2177.5995910944139</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-47.386094843711362</v>
+      </c>
+      <c r="Y87">
+        <v>-39.681964995439913</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2040.1</v>
+      </c>
+      <c r="D88">
+        <v>2125</v>
+      </c>
+      <c r="E88">
+        <v>2040.1</v>
+      </c>
+      <c r="F88">
+        <v>2083</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2082.7000000000003</v>
+      </c>
+      <c r="H88">
+        <v>2079.8065526290175</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>2150.9433775050297</v>
+      </c>
+      <c r="K88">
+        <v>2081.5686832660422</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>39.131097283692121</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>42.900000000000091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>84.900000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.50530035335689094</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>2122.9498814429021</v>
+      </c>
+      <c r="W88">
+        <v>2170.5922139763093</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-47.642332533407171</v>
+      </c>
+      <c r="Y88">
+        <v>-41.274038503033367</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2126.6</v>
+      </c>
+      <c r="D89">
+        <v>2126.6</v>
+      </c>
+      <c r="E89">
+        <v>2054</v>
+      </c>
+      <c r="F89">
+        <v>2085</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2088.5333333333333</v>
+      </c>
+      <c r="H89">
+        <v>2084.1699429811752</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>2145.5337380594674</v>
+      </c>
+      <c r="K89">
+        <v>2075.4423092069219</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>40.101305246227128</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>72.599999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.4269972451790639</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2117.1114381439943</v>
+      </c>
+      <c r="W89">
+        <v>2164.252049978064</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-47.140611834069659</v>
+      </c>
+      <c r="Y89">
+        <v>-42.447353169240628</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2085</v>
+      </c>
+      <c r="D90">
+        <v>2105</v>
+      </c>
+      <c r="E90">
+        <v>2051.0500000000002</v>
+      </c>
+      <c r="F90">
+        <v>2057.0500000000002</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2071.0333333333333</v>
+      </c>
+      <c r="H90">
+        <v>2077.6016381572545</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>2136.5262407129189</v>
+      </c>
+      <c r="K90">
+        <v>2070.021796049828</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>31.36738053335273</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>53.949999999999818</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.11121408711770195</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>2107.871216891072</v>
+      </c>
+      <c r="W90">
+        <v>2156.311157387096</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-48.439940496024064</v>
+      </c>
+      <c r="Y90">
+        <v>-43.645870634597316</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2090</v>
+      </c>
+      <c r="D91">
+        <v>2110.0500000000002</v>
+      </c>
+      <c r="E91">
+        <v>2067</v>
+      </c>
+      <c r="F91">
+        <v>2084</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2087.0166666666669</v>
+      </c>
+      <c r="H91">
+        <v>2082.3091524119609</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>2130.6426316656039</v>
+      </c>
+      <c r="K91">
+        <v>2069.350285816533</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>45.637752909231146</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>43.050000000000182</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.39488966318234442</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>2104.1987219847533</v>
+      </c>
+      <c r="W91">
+        <v>2150.9547753584225</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-46.756053373669147</v>
+      </c>
+      <c r="Y91">
+        <v>-44.267907182411683</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2123.85</v>
+      </c>
+      <c r="D92">
+        <v>2126</v>
+      </c>
+      <c r="E92">
+        <v>2064.9499999999998</v>
+      </c>
+      <c r="F92">
+        <v>2080</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2090.3166666666666</v>
+      </c>
+      <c r="H92">
+        <v>2086.3129095393138</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2129.6109357399141</v>
+      </c>
+      <c r="K92">
+        <v>2068.37244452397</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>43.942626922418079</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>15.050000000000182</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>61.050000000000182</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.24651924651924875</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>2100.4758416794066</v>
+      </c>
+      <c r="W92">
+        <v>2145.6988660726133</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-45.223024393206742</v>
+      </c>
+      <c r="Y92">
+        <v>-44.458930624570698</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2100</v>
+      </c>
+      <c r="D93">
+        <v>2101.65</v>
+      </c>
+      <c r="E93">
+        <v>2058</v>
+      </c>
+      <c r="F93">
+        <v>2061.0500000000002</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2073.5666666666666</v>
+      </c>
+      <c r="H93">
+        <v>2079.93978810299</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>2123.3973944643776</v>
+      </c>
+      <c r="K93">
+        <v>2066.0674568519767</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>36.019828509461711</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.0500000000001819</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>43.650000000000091</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>6.9873997709053282E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>2094.4103275748826</v>
+      </c>
+      <c r="W93">
+        <v>2139.4285796968643</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-45.018252121981732</v>
+      </c>
+      <c r="Y93">
+        <v>-44.570794924052905</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2074.5</v>
+      </c>
+      <c r="D94">
+        <v>2105.9499999999998</v>
+      </c>
+      <c r="E94">
+        <v>2059.8000000000002</v>
+      </c>
+      <c r="F94">
+        <v>2095</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2086.9166666666665</v>
+      </c>
+      <c r="H94">
+        <v>2083.4282273848285</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>2119.5201956945157</v>
+      </c>
+      <c r="K94">
+        <v>2064.6746886626484</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>54.422584328498736</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>35.199999999999818</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>46.149999999999636</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.76273022751896202</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>2094.5010464095162</v>
+      </c>
+      <c r="W94">
+        <v>2136.1375737933927</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-41.636527383876455</v>
+      </c>
+      <c r="Y94">
+        <v>-43.983941416017615</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2114</v>
+      </c>
+      <c r="D95">
+        <v>2114</v>
+      </c>
+      <c r="E95">
+        <v>2067</v>
+      </c>
+      <c r="F95">
+        <v>2070</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2083.6666666666665</v>
+      </c>
+      <c r="H95">
+        <v>2083.5474470257477</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>2118.2934855401791</v>
+      </c>
+      <c r="K95">
+        <v>2065.191424515393</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>43.030066350007679</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>47</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>2090.7316546542061</v>
+      </c>
+      <c r="W95">
+        <v>2131.2384942531412</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-40.50683959893513</v>
+      </c>
+      <c r="Y95">
+        <v>-43.288521052601119</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2090</v>
+      </c>
+      <c r="D96">
+        <v>2100</v>
+      </c>
+      <c r="E96">
+        <v>2052</v>
+      </c>
+      <c r="F96">
+        <v>2055</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2069</v>
+      </c>
+      <c r="H96">
+        <v>2076.2737235128739</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>2114.2282665312505</v>
+      </c>
+      <c r="K96">
+        <v>2062.2599968453055</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N96">
+        <v>37.191043335884267</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>48</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V96">
+        <v>2085.2344770150976</v>
+      </c>
+      <c r="W96">
+        <v>2125.5911983825381</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-40.356721367440514</v>
+      </c>
+      <c r="Y96">
+        <v>-42.702161115568998</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2079.9499999999998</v>
+      </c>
+      <c r="D97">
+        <v>2147</v>
+      </c>
+      <c r="E97">
+        <v>2041</v>
+      </c>
+      <c r="F97">
+        <v>2111</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2099.6666666666665</v>
+      </c>
+      <c r="H97">
+        <v>2087.9701950897702</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>2121.5108739687503</v>
+      </c>
+      <c r="K97">
+        <v>2057.5355531019045</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>61.54356621940579</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>70</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>106</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.660377358490566</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>2089.1984036281597</v>
+      </c>
+      <c r="W97">
+        <v>2124.5103688727204</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-35.311965244560724</v>
+      </c>
+      <c r="Y97">
+        <v>-41.224121941367343</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>2120</v>
+      </c>
+      <c r="D98">
+        <v>2170</v>
+      </c>
+      <c r="E98">
+        <v>2110.1999999999998</v>
+      </c>
+      <c r="F98">
+        <v>2155</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>2145.0666666666666</v>
+      </c>
+      <c r="H98">
+        <v>2116.5184308782182</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>2132.2862353090281</v>
+      </c>
+      <c r="K98">
+        <v>2069.2387635237033</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>72.149166243817504</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>44.800000000000182</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>59.800000000000182</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.74916387959866293</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>2099.3217261469044</v>
+      </c>
+      <c r="W98">
+        <v>2126.7688600673337</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-27.447133920429224</v>
+      </c>
+      <c r="Y98">
+        <v>-38.468724337179722</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>2172.8000000000002</v>
+      </c>
+      <c r="D99">
+        <v>2201</v>
+      </c>
+      <c r="E99">
+        <v>2119</v>
+      </c>
+      <c r="F99">
+        <v>2119</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>2146.3333333333335</v>
+      </c>
+      <c r="H99">
+        <v>2131.4258821057756</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>2147.5559607959108</v>
+      </c>
+      <c r="K99">
+        <v>2080.2968160739915</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>56.276406813179101</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>82</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>2102.3491528935347</v>
+      </c>
+      <c r="W99">
+        <v>2126.1933889512347</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-23.844236057700073</v>
+      </c>
+      <c r="Y99">
+        <v>-35.54382668128379</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>2124.85</v>
+      </c>
+      <c r="D100">
+        <v>2167.9499999999998</v>
+      </c>
+      <c r="E100">
+        <v>2124.85</v>
+      </c>
+      <c r="F100">
+        <v>2130</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>2140.9333333333329</v>
+      </c>
+      <c r="H100">
+        <v>2136.179607719554</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>2152.0879695079307</v>
+      </c>
+      <c r="K100">
+        <v>2090.1975236131043</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>59.665604254356275</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.1500000000000909</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>43.099999999999909</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.11948955916473554</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>2106.6031293714523</v>
+      </c>
+      <c r="W100">
+        <v>2126.4753601400321</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-19.872230768579811</v>
+      </c>
+      <c r="Y100">
+        <v>-32.409507498742997</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>2150.9</v>
+      </c>
+      <c r="D101">
+        <v>2181</v>
+      </c>
+      <c r="E101">
+        <v>2114</v>
+      </c>
+      <c r="F101">
+        <v>2142</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>2145.6666666666665</v>
+      </c>
+      <c r="H101">
+        <v>2140.9231371931101</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>2158.5128651728351</v>
+      </c>
+      <c r="K101">
+        <v>2095.4869628101924</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>63.521430041758883</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>28</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>67</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.41791044776119401</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>2112.0488017758444</v>
+      </c>
+      <c r="W101">
+        <v>2127.6253334629928</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-15.576531687148417</v>
+      </c>
+      <c r="Y101">
+        <v>-29.042912336424081</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>2137.9499999999998</v>
+      </c>
+      <c r="D102">
+        <v>2198.9499999999998</v>
+      </c>
+      <c r="E102">
+        <v>2066.0500000000002</v>
+      </c>
+      <c r="F102">
+        <v>2115</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>2126.6666666666665</v>
+      </c>
+      <c r="H102">
+        <v>2133.7949019298885</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>2167.4988951344271</v>
+      </c>
+      <c r="K102">
+        <v>2088.9454155190388</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>50.061611496968098</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>48.949999999999818</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>132.89999999999964</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.36832204665161739</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>2112.5028322718681</v>
+      </c>
+      <c r="W102">
+        <v>2126.6901235768451</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-14.187291304976952</v>
+      </c>
+      <c r="Y102">
+        <v>-26.071788130134657</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>2054</v>
+      </c>
+      <c r="D103">
+        <v>2099.85</v>
+      </c>
+      <c r="E103">
+        <v>2012.55</v>
+      </c>
+      <c r="F103">
+        <v>2091.0500000000002</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>2067.8166666666666</v>
+      </c>
+      <c r="H103">
+        <v>2100.8057842982776</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>2152.4658073267765</v>
+      </c>
+      <c r="K103">
+        <v>2071.9686565148081</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>40.537443250525492</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>78.500000000000227</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>87.299999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.89919816723940738</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>2109.2023965377348</v>
+      </c>
+      <c r="W103">
+        <v>2124.0501144230047</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-14.847717885269958</v>
+      </c>
+      <c r="Y103">
+        <v>-23.826974081161715</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>2079.85</v>
+      </c>
+      <c r="D104">
+        <v>2119</v>
+      </c>
+      <c r="E104">
+        <v>2055.9499999999998</v>
+      </c>
+      <c r="F104">
+        <v>2055.9499999999998</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>2076.9666666666667</v>
+      </c>
+      <c r="H104">
+        <v>2088.8862254824721</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>2145.0289612541596</v>
+      </c>
+      <c r="K104">
+        <v>2068.4089550670728</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>30.060581335724308</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>63.050000000000182</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>2101.0097201473141</v>
+      </c>
+      <c r="W104">
+        <v>2119.005661502782</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-17.995941355467949</v>
+      </c>
+      <c r="Y104">
+        <v>-22.660767536022963</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
